--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H2">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N2">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P2">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q2">
-        <v>49.40740839468766</v>
+        <v>29.194560838188</v>
       </c>
       <c r="R2">
-        <v>444.666675552189</v>
+        <v>262.751047543692</v>
       </c>
       <c r="S2">
-        <v>0.007545767972265551</v>
+        <v>0.003287868919172412</v>
       </c>
       <c r="T2">
-        <v>0.007545767972265553</v>
+        <v>0.003287868919172412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H3">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P3">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q3">
-        <v>528.1415984546779</v>
+        <v>488.944106992692</v>
       </c>
       <c r="R3">
-        <v>4753.274386092102</v>
+        <v>4400.496962934229</v>
       </c>
       <c r="S3">
-        <v>0.08066065571795784</v>
+        <v>0.05506450812889019</v>
       </c>
       <c r="T3">
-        <v>0.08066065571795786</v>
+        <v>0.05506450812889019</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H4">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N4">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O4">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P4">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q4">
-        <v>274.4081213950853</v>
+        <v>578.5478097459659</v>
       </c>
       <c r="R4">
-        <v>2469.673092555768</v>
+        <v>5206.930287713693</v>
       </c>
       <c r="S4">
-        <v>0.0419090998906801</v>
+        <v>0.06515560800732692</v>
       </c>
       <c r="T4">
-        <v>0.04190909989068011</v>
+        <v>0.06515560800732692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H5">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N5">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P5">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q5">
-        <v>566.0089061696447</v>
+        <v>517.053428124468</v>
       </c>
       <c r="R5">
-        <v>5094.080155526802</v>
+        <v>4653.480853120212</v>
       </c>
       <c r="S5">
-        <v>0.08644395678626976</v>
+        <v>0.05823015818954508</v>
       </c>
       <c r="T5">
-        <v>0.08644395678626976</v>
+        <v>0.05823015818954508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N6">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P6">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q6">
-        <v>74.17459265120802</v>
+        <v>47.343046592016</v>
       </c>
       <c r="R6">
-        <v>667.5713338608722</v>
+        <v>426.087419328144</v>
       </c>
       <c r="S6">
-        <v>0.01132834697809224</v>
+        <v>0.005331737383944902</v>
       </c>
       <c r="T6">
-        <v>0.01132834697809224</v>
+        <v>0.005331737383944902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P7">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q7">
         <v>792.8909691961441</v>
@@ -883,10 +883,10 @@
         <v>7136.018722765297</v>
       </c>
       <c r="S7">
-        <v>0.1210946187070632</v>
+        <v>0.08929476926751724</v>
       </c>
       <c r="T7">
-        <v>0.1210946187070632</v>
+        <v>0.08929476926751724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N8">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O8">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P8">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q8">
-        <v>411.9647495384961</v>
+        <v>938.195853135912</v>
       </c>
       <c r="R8">
-        <v>3707.682745846464</v>
+        <v>8443.762678223207</v>
       </c>
       <c r="S8">
-        <v>0.06291749585279242</v>
+        <v>0.1056588931999658</v>
       </c>
       <c r="T8">
-        <v>0.06291749585279244</v>
+        <v>0.1056588931999658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N9">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P9">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q9">
-        <v>849.7405837745441</v>
+        <v>838.4741484529761</v>
       </c>
       <c r="R9">
-        <v>7647.665253970897</v>
+        <v>7546.267336076785</v>
       </c>
       <c r="S9">
-        <v>0.1297770008610613</v>
+        <v>0.09442831174984029</v>
       </c>
       <c r="T9">
-        <v>0.1297770008610613</v>
+        <v>0.09442831174984029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H10">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N10">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P10">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q10">
-        <v>30.695982631533</v>
+        <v>35.096741847066</v>
       </c>
       <c r="R10">
-        <v>276.2638436837971</v>
+        <v>315.870676623594</v>
       </c>
       <c r="S10">
-        <v>0.004688057320633435</v>
+        <v>0.003952567991098033</v>
       </c>
       <c r="T10">
-        <v>0.004688057320633436</v>
+        <v>0.003952567991098033</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H11">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P11">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q11">
-        <v>328.125393739494</v>
+        <v>587.792541079094</v>
       </c>
       <c r="R11">
-        <v>2953.128543655446</v>
+        <v>5290.132869711846</v>
       </c>
       <c r="S11">
-        <v>0.05011309371233313</v>
+        <v>0.06619674251812704</v>
       </c>
       <c r="T11">
-        <v>0.05011309371233313</v>
+        <v>0.06619674251812704</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H12">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N12">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O12">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P12">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q12">
-        <v>170.485099339896</v>
+        <v>695.511168583137</v>
       </c>
       <c r="R12">
-        <v>1534.365894059064</v>
+        <v>6259.600517248233</v>
       </c>
       <c r="S12">
-        <v>0.02603741107145012</v>
+        <v>0.07832793124706272</v>
       </c>
       <c r="T12">
-        <v>0.02603741107145012</v>
+        <v>0.07832793124706272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H13">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N13">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P13">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q13">
-        <v>351.651708065394</v>
+        <v>621.5846434068594</v>
       </c>
       <c r="R13">
-        <v>3164.865372588546</v>
+        <v>5594.261790661734</v>
       </c>
       <c r="S13">
-        <v>0.05370616031739951</v>
+        <v>0.07000238301303813</v>
       </c>
       <c r="T13">
-        <v>0.05370616031739951</v>
+        <v>0.07000238301303813</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H14">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.993142333333334</v>
+        <v>1.910418</v>
       </c>
       <c r="N14">
-        <v>8.979427000000001</v>
+        <v>5.731254</v>
       </c>
       <c r="O14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="P14">
-        <v>0.03484385887642424</v>
+        <v>0.01809124304049503</v>
       </c>
       <c r="Q14">
-        <v>73.86907463153179</v>
+        <v>49.006451365452</v>
       </c>
       <c r="R14">
-        <v>664.8216716837861</v>
+        <v>441.058062289068</v>
       </c>
       <c r="S14">
-        <v>0.01128168660543301</v>
+        <v>0.005519068746279679</v>
       </c>
       <c r="T14">
-        <v>0.01128168660543301</v>
+        <v>0.005519068746279679</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H15">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3724642097459734</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="P15">
-        <v>0.3724642097459735</v>
+        <v>0.302988173785169</v>
       </c>
       <c r="Q15">
-        <v>789.6251274831054</v>
+        <v>820.749307810068</v>
       </c>
       <c r="R15">
-        <v>7106.626147347949</v>
+        <v>7386.743770290613</v>
       </c>
       <c r="S15">
-        <v>0.1205958416086193</v>
+        <v>0.09243215387063451</v>
       </c>
       <c r="T15">
-        <v>0.1205958416086193</v>
+        <v>0.09243215387063451</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H16">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.62387466666667</v>
+        <v>37.858701</v>
       </c>
       <c r="N16">
-        <v>49.871624</v>
+        <v>113.576103</v>
       </c>
       <c r="O16">
-        <v>0.1935223515480544</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="P16">
-        <v>0.1935223515480545</v>
+        <v>0.3585136661130873</v>
       </c>
       <c r="Q16">
-        <v>410.2679063209369</v>
+        <v>971.1594998140139</v>
       </c>
       <c r="R16">
-        <v>3692.411156888432</v>
+        <v>8740.435498326126</v>
       </c>
       <c r="S16">
-        <v>0.0626583447331318</v>
+        <v>0.1093712336587319</v>
       </c>
       <c r="T16">
-        <v>0.0626583447331318</v>
+        <v>0.1093712336587319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H17">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.28929533333334</v>
+        <v>33.83466466666667</v>
       </c>
       <c r="N17">
-        <v>102.867886</v>
+        <v>101.503994</v>
       </c>
       <c r="O17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="P17">
-        <v>0.3991695798295478</v>
+        <v>0.3204069170612486</v>
       </c>
       <c r="Q17">
-        <v>846.2405839617498</v>
+        <v>867.9340586475721</v>
       </c>
       <c r="R17">
-        <v>7616.165255655748</v>
+        <v>7811.406527828149</v>
       </c>
       <c r="S17">
-        <v>0.1292424618648172</v>
+        <v>0.09774606410882507</v>
       </c>
       <c r="T17">
-        <v>0.1292424618648172</v>
+        <v>0.09774606410882507</v>
       </c>
     </row>
   </sheetData>
